--- a/biology/Zoologie/Cynops/Cynops.xlsx
+++ b/biology/Zoologie/Cynops/Cynops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cynops est un genre d'urodèles de la famille des Salamandridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynops est un genre d'urodèles de la famille des Salamandridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux espèces de ce genre sont endémiques du Japon, les huit autres de Chine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux espèces de ce genre sont endémiques du Japon, les huit autres de Chine.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (09 mai 2018)[2] :
-espèces de Chine (un temps classées dans le genre Hypselotriton[3]) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (09 mai 2018) :
+espèces de Chine (un temps classées dans le genre Hypselotriton) :
 Cynops chenggongensis (Kou &amp; Xing, 1983) ;
 Cynops cyanurus (Liu, Hu, &amp; Yang, 1962) ;
 Cynops fudingensis (Wu, Wang, Jiang, &amp; Hanken, 2010) ;
@@ -584,7 +600,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tschudi, 1838 : Classification der Batrachier, mit Berucksichtigung der fossilen Thiere dieser Abtheilung der Reptilien, p. 1-99 (texte intégral).</t>
         </is>
